--- a/results/FrequencyTables/26796669_gGag1.xlsx
+++ b/results/FrequencyTables/26796669_gGag1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0431000836353499</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000446055199330917</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.000111513799832729</v>
       </c>
       <c r="E2">
-        <v>0.99</v>
+        <v>0.995539448006691</v>
       </c>
       <c r="F2">
-        <v>0.99</v>
+        <v>0.999498187900753</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.999609701700585</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.982938388625592</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00100362419849456</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.998940618901589</v>
       </c>
       <c r="K2">
-        <v>0.02</v>
+        <v>0.13543350989685</v>
       </c>
       <c r="L2">
-        <v>0.98</v>
+        <v>0.998327293002509</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.000334541399498188</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0218009478672986</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.999721215500418</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00161695009757457</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.999776972400335</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.99938667410092</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000278784499581823</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.999052132701422</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0248675773626986</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00200724839698913</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000446055199330917</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0173961527739058</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.000446055199330917</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -566,43 +566,43 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0105938109841093</v>
       </c>
       <c r="L3">
-        <v>0.02</v>
+        <v>0.000111513799832729</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.999219403401171</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>0.904098132143853</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000223027599665459</v>
       </c>
       <c r="Q3">
-        <v>0.59</v>
+        <v>0.948201839977697</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00596598829105102</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.000111513799832729</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000390298299414553</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.955394480066908</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000669082798996376</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.00312238639531642</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.000501812099247282</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000278784499581823</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0156676888764985</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.998884862001673</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.000892110398661834</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.827822693058266</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00150543629774185</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.000223027599665459</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000167270699749094</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000167270699749094</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000278784499581823</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000167270699749094</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000334541399498188</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000278784499581823</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.999553944800669</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.000446055199330917</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.964761639252858</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.997936994703094</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,25 +687,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00083635349874547</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.980206300529691</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.99938667410092</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00083635349874547</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000111513799832729</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -714,46 +714,46 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.03</v>
+        <v>0.0214664064678004</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000223027599665459</v>
       </c>
       <c r="N5">
-        <v>0.03</v>
+        <v>0.0722051853916922</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.999442431000836</v>
       </c>
       <c r="Q5">
-        <v>0.41</v>
+        <v>0.04800669082799</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000223027599665459</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.993364928909953</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000390298299414553</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0091441315862838</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>5.57568999163647e-05</v>
       </c>
     </row>
   </sheetData>
